--- a/roadmaps/BSDS.xlsx
+++ b/roadmaps/BSDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/roadmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{981AB644-A239-4314-9AA0-EC8609EA41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA2D523-F096-46DC-8BE8-44B347159E8F}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{981AB644-A239-4314-9AA0-EC8609EA41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB813B5D-6FB2-443B-BD87-26133945751E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{15392F6E-8561-4F3B-8D35-C3E961BAA029}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{15392F6E-8561-4F3B-8D35-C3E961BAA029}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>semester</t>
   </si>
@@ -354,28 +354,16 @@
     <t>student_count</t>
   </si>
   <si>
-    <t>Room1</t>
-  </si>
-  <si>
-    <t>Room2</t>
-  </si>
-  <si>
-    <t>Room3</t>
-  </si>
-  <si>
-    <t>Room4</t>
-  </si>
-  <si>
-    <t>Room5</t>
-  </si>
-  <si>
-    <t>Room6</t>
-  </si>
-  <si>
-    <t>Room7</t>
-  </si>
-  <si>
-    <t>Room8</t>
+    <t>DS_Room1</t>
+  </si>
+  <si>
+    <t>DS_Room2</t>
+  </si>
+  <si>
+    <t>DS_Room3</t>
+  </si>
+  <si>
+    <t>DS_Room4</t>
   </si>
 </sst>
 </file>
@@ -923,6 +911,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,9 +1236,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849D7CB-30CC-4E12-BDBF-A51B1A217195}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2037,13 +2034,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB545F12-FA47-4B80-A4BD-F8940A18735A}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2087,39 +2087,39 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
@@ -2159,41 +2159,9 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2207,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840E17D-44E8-49ED-B0CA-E8D71FDD2A26}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
